--- a/biology/Médecine/Hôpital_La_Rabta_de_Tunis/Hôpital_La_Rabta_de_Tunis.xlsx
+++ b/biology/Médecine/Hôpital_La_Rabta_de_Tunis/Hôpital_La_Rabta_de_Tunis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_La_Rabta_de_Tunis</t>
+          <t>Hôpital_La_Rabta_de_Tunis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'hôpital La Rabta de Tunis est un établissement de santé publique tunisien situé à Tunis[1].
+L'hôpital La Rabta de Tunis est un établissement de santé publique tunisien situé à Tunis.
 C'est un établissement public à caractère administratif doté de la personnalité morale et de l'autonomie financière tout en étant sous la supervision du ministère de la Santé.
-Cet hôpital a pour activité principale les soins, la prévention, l'enseignement et la recherche[2].
+Cet hôpital a pour activité principale les soins, la prévention, l'enseignement et la recherche.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_La_Rabta_de_Tunis</t>
+          <t>Hôpital_La_Rabta_de_Tunis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,12 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce centre hospitalier universitaire pluridisciplinaire de type pavillonnaire s'étend sur environ onze hectares[3] 
-L'hôpital La Rabta est constitué de 19 entités réparties de la façon suivante[4] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ce centre hospitalier universitaire pluridisciplinaire de type pavillonnaire s'étend sur environ onze hectares 
+L'hôpital La Rabta est constitué de 19 entités réparties de la façon suivante : 
 Chirurgie B ;
 Urgence, maladies infectieuses et anesthésie-réanimation ;
 Ophtalmologie ;
@@ -546,7 +560,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_La_Rabta_de_Tunis</t>
+          <t>Hôpital_La_Rabta_de_Tunis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,9 +578,11 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital La Rabta compte 34 disciplines et services disponibles[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital La Rabta compte 34 disciplines et services disponibles :
 Immunologie ;
 Maladies infectieuses ;
 Anesthésie-réanimation ;
